--- a/stats/recall_precision_summary.xlsx
+++ b/stats/recall_precision_summary.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="19540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="69">
   <si>
     <t>how to browse anonymously</t>
   </si>
@@ -240,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -276,8 +277,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +310,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -312,7 +325,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -323,8 +336,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,16 +389,41 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Neutral" xfId="10" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -661,11 +702,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,63 +730,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
       <c r="K1" s="1"/>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
     </row>
     <row r="2" spans="1:22" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="14"/>
+      <c r="M2" s="18"/>
       <c r="N2" s="8"/>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="7"/>
+      <c r="P2" s="19"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="7"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="8"/>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="V2" s="7"/>
+      <c r="V2" s="19"/>
     </row>
     <row r="3" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C3" s="9" t="s">
@@ -856,1330 +897,1874 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.4</v>
+      </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="17"/>
+      <c r="F6" s="6">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G6" s="17">
+        <v>8.3000000000000004E-2</v>
+      </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="I6" s="10">
+        <v>24</v>
+      </c>
+      <c r="J6" s="10">
+        <v>5</v>
+      </c>
       <c r="K6" s="10"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="L6" s="15">
+        <f>I6/U6</f>
+        <v>0.375</v>
+      </c>
+      <c r="M6" s="15">
+        <f>J6/V6</f>
+        <v>0.20833333333333334</v>
+      </c>
       <c r="N6" s="4"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="13"/>
+      <c r="O6" s="6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="Q6" s="4"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="13"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
+      <c r="R6" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="S6" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="U6" s="10">
+        <v>64</v>
+      </c>
+      <c r="V6" s="10">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="6">
-        <v>0.4</v>
+        <v>0.214</v>
       </c>
       <c r="D7" s="13">
-        <v>0.4</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="6">
-        <v>8.3000000000000004E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G7" s="17">
-        <v>8.3000000000000004E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="10">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="J7" s="10">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="15">
         <f>I7/U7</f>
-        <v>0.375</v>
+        <v>0.50114416475972545</v>
       </c>
       <c r="M7" s="15">
         <f>J7/V7</f>
-        <v>0.20833333333333334</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="6">
-        <v>4.2000000000000003E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="6">
-        <v>1.6E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="S7" s="13">
-        <v>1.6E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="U7" s="10">
-        <v>64</v>
+        <v>437</v>
       </c>
       <c r="V7" s="10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="6">
+        <v>0.222</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.222</v>
+      </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="17"/>
+      <c r="F8" s="6">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G8" s="17">
+        <v>3.3000000000000002E-2</v>
+      </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="I8" s="10">
+        <v>60</v>
+      </c>
+      <c r="J8" s="10">
+        <v>9</v>
+      </c>
       <c r="K8" s="10"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="L8" s="15">
+        <f>I8/U8</f>
+        <v>0.55045871559633031</v>
+      </c>
+      <c r="M8" s="15">
+        <f>J8/V8</f>
+        <v>0.27272727272727271</v>
+      </c>
       <c r="N8" s="4"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="13"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="Q8" s="4"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="13"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="S8" s="13">
+        <v>0</v>
+      </c>
+      <c r="U8" s="10">
+        <v>109</v>
+      </c>
+      <c r="V8" s="10">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="6">
-        <v>0.214</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D9" s="13">
-        <v>0.28599999999999998</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="6">
-        <v>1.4E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="G9" s="17">
-        <v>1.7999999999999999E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="10">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="J9" s="10">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="15">
         <f>I9/U9</f>
-        <v>0.50114416475972545</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="M9" s="15">
         <f>J9/V9</f>
-        <v>0.46666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="6">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="6">
-        <v>2E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="S9" s="13">
-        <v>7.0000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="U9" s="10">
-        <v>437</v>
+        <v>89</v>
       </c>
       <c r="V9" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="6">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.42899999999999999</v>
+      </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="17"/>
+      <c r="F10" s="6">
+        <v>0.188</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0.188</v>
+      </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="I10" s="10">
+        <v>16</v>
+      </c>
+      <c r="J10" s="10">
+        <v>7</v>
+      </c>
       <c r="K10" s="10"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="L10" s="15">
+        <f>I10/U10</f>
+        <v>0.2711864406779661</v>
+      </c>
+      <c r="M10" s="15">
+        <f>J10/V10</f>
+        <v>0.21212121212121213</v>
+      </c>
       <c r="N10" s="4"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="13"/>
+      <c r="O10" s="6">
+        <v>0.152</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="Q10" s="4"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="13"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
+      <c r="R10" s="6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="S10" s="13">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="U10" s="10">
+        <v>59</v>
+      </c>
+      <c r="V10" s="10">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="6">
-        <v>0.222</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="D11" s="13">
-        <v>0.222</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="6">
-        <v>3.3000000000000002E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="G11" s="17">
-        <v>3.3000000000000002E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="10">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="J11" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="15">
         <f>I11/U11</f>
-        <v>0.55045871559633031</v>
+        <v>0.38</v>
       </c>
       <c r="M11" s="15">
         <f>J11/V11</f>
-        <v>0.27272727272727271</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="6">
-        <v>0</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="S11" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="U11" s="10">
+        <v>100</v>
+      </c>
+      <c r="V11" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="6">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="6">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G12" s="17">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10">
+        <v>54</v>
+      </c>
+      <c r="J12" s="10">
+        <v>21</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="15">
+        <f>I12/U12</f>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="M12" s="15">
+        <f>J12/V12</f>
+        <v>0.7</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="6">
         <v>0</v>
       </c>
-      <c r="S11" s="13">
+      <c r="P12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="6">
         <v>0</v>
       </c>
-      <c r="U11" s="10">
-        <v>109</v>
-      </c>
-      <c r="V11" s="10">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="13"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
+      <c r="S12" s="13">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="U12" s="10">
+        <v>57</v>
+      </c>
+      <c r="V12" s="10">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="6">
-        <v>0.33300000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="D13" s="13">
-        <v>0.33300000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="6">
-        <v>3.5999999999999997E-2</v>
+        <v>0.222</v>
       </c>
       <c r="G13" s="17">
-        <v>3.5999999999999997E-2</v>
+        <v>0.222</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="10">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="J13" s="10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="15">
         <f>I13/U13</f>
-        <v>0.6179775280898876</v>
+        <v>6.4748201438848921E-2</v>
       </c>
       <c r="M13" s="15">
         <f>J13/V13</f>
-        <v>0.2</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="6">
-        <v>3.3000000000000002E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="6">
-        <v>1.0999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="S13" s="13">
-        <v>1.0999999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="U13" s="10">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="V13" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="6">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.17599999999999999</v>
+      </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="17"/>
+      <c r="F14" s="6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G14" s="17">
+        <v>5.5E-2</v>
+      </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="I14" s="10">
+        <v>55</v>
+      </c>
+      <c r="J14" s="10">
+        <v>17</v>
+      </c>
       <c r="K14" s="10"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
+      <c r="L14" s="16">
+        <f>I14/U14</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M14" s="15">
+        <f>J14/V14</f>
+        <v>0.70833333333333337</v>
+      </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="13"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="Q14" s="4"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="13"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="U14" s="10">
+        <v>25</v>
+      </c>
+      <c r="V14" s="10">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="6">
-        <v>0.42899999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="D15" s="13">
-        <v>0.42899999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="6">
-        <v>0.188</v>
+        <v>2.7E-2</v>
       </c>
       <c r="G15" s="17">
-        <v>0.188</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="10">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="J15" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K15" s="10"/>
       <c r="L15" s="15">
         <f>I15/U15</f>
-        <v>0.2711864406779661</v>
+        <v>0.86904761904761907</v>
       </c>
       <c r="M15" s="15">
         <f>J15/V15</f>
-        <v>0.21212121212121213</v>
+        <v>0.4</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="6">
-        <v>0.152</v>
+        <v>0</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="6">
-        <v>3.4000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="S15" s="13">
-        <v>3.4000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="U15" s="10">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="V15" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10">
+        <v>20</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="15">
+        <f>I16/U16</f>
+        <v>8.8495575221238937E-3</v>
+      </c>
+      <c r="M16" s="15">
+        <f>J16/V16</f>
+        <v>0.60606060606060608</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="6">
+        <v>0.121</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="S16" s="13">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="U16" s="10">
+        <v>113</v>
+      </c>
+      <c r="V16" s="10">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="13"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
     </row>
     <row r="17" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="6">
-        <v>0.28599999999999998</v>
+        <v>0.125</v>
       </c>
       <c r="D17" s="13">
-        <v>0.28599999999999998</v>
+        <v>0.188</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="6">
-        <v>5.2999999999999999E-2</v>
+        <v>0.154</v>
       </c>
       <c r="G17" s="17">
-        <v>5.2999999999999999E-2</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J17" s="10">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="15">
         <f>I17/U17</f>
-        <v>0.38</v>
+        <v>0.44827586206896552</v>
       </c>
       <c r="M17" s="15">
         <f>J17/V17</f>
-        <v>0.23333333333333334</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="6">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="6">
-        <v>0.01</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="S17" s="13">
-        <v>0.01</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="U17" s="10">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="V17" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="6">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D18" s="13">
+        <v>5.6000000000000001E-2</v>
+      </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="17"/>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="17">
+        <v>1</v>
+      </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
+      <c r="J18" s="10">
+        <v>18</v>
+      </c>
       <c r="K18" s="10"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
+      <c r="L18" s="15">
+        <f>I18/U18</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="M18" s="15">
+        <f>J18/V18</f>
+        <v>0.69230769230769229</v>
+      </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="13"/>
+      <c r="O18" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="13"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-    </row>
-    <row r="19" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="R18" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="S18" s="13">
+        <v>1.4E-2</v>
+      </c>
+      <c r="U18" s="10">
+        <v>70</v>
+      </c>
+      <c r="V18" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="6">
-        <v>9.5000000000000001E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D19" s="13">
-        <v>0.19</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="6">
-        <v>3.6999999999999998E-2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="17">
-        <v>5.6000000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="10">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="J19" s="10">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="15">
         <f>I19/U19</f>
-        <v>0.94736842105263153</v>
+        <v>1.3513513513513514E-2</v>
       </c>
       <c r="M19" s="15">
         <f>J19/V19</f>
-        <v>0.7</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="6">
-        <v>0</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="6">
-        <v>0</v>
+        <v>1.4E-2</v>
       </c>
       <c r="S19" s="13">
-        <v>3.5000000000000003E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="U19" s="10">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="V19" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="6">
+        <v>0.111</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0.111</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10">
+        <v>9</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="15">
+        <f>I20/U20</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="M20" s="15">
+        <f>J20/V20</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="6">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="6">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="S20" s="13">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="U20" s="10">
+        <v>19</v>
+      </c>
+      <c r="V20" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22">
+        <v>0.125</v>
+      </c>
+      <c r="D21" s="22">
+        <v>0.125</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22">
+        <v>1</v>
+      </c>
+      <c r="G21" s="22">
+        <v>1</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22">
+        <v>1</v>
+      </c>
+      <c r="J21" s="22">
+        <v>8</v>
+      </c>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23">
+        <f>I21/U21</f>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="M21" s="23">
+        <f>J21/V21</f>
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="P21" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="S21" s="22">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="U21" s="22">
+        <v>56</v>
+      </c>
+      <c r="V21" s="22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D22" s="22">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="22">
+        <v>11</v>
+      </c>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23">
+        <f>I22/U22</f>
+        <v>1.1764705882352941E-2</v>
+      </c>
+      <c r="M22" s="23">
+        <f>J22/V22</f>
+        <v>0.40740740740740738</v>
+      </c>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S22" s="22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="U22" s="22">
+        <v>85</v>
+      </c>
+      <c r="V22" s="22">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D23" s="22">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22">
+        <v>1</v>
+      </c>
+      <c r="G23" s="22">
+        <v>1</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22">
+        <v>1</v>
+      </c>
+      <c r="J23" s="22">
+        <v>11</v>
+      </c>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23">
+        <f>I23/U23</f>
+        <v>9.1743119266055051E-3</v>
+      </c>
+      <c r="M23" s="23">
+        <f>J23/V23</f>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="P23" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="S23" s="22">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="U23" s="22">
+        <v>109</v>
+      </c>
+      <c r="V23" s="22">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="13"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-    </row>
-    <row r="21" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D21" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6">
-        <v>0.222</v>
-      </c>
-      <c r="G21" s="17">
-        <v>0.222</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="10">
-        <v>9</v>
-      </c>
-      <c r="J21" s="10">
+    <row r="24" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D24" s="22">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22">
+        <v>1</v>
+      </c>
+      <c r="G24" s="22">
+        <v>1</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22">
+        <v>1</v>
+      </c>
+      <c r="J24" s="22">
+        <v>13</v>
+      </c>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23">
+        <f>I24/U24</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="M24" s="23">
+        <f>J24/V24</f>
+        <v>0.48148148148148145</v>
+      </c>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22">
+        <v>0.111</v>
+      </c>
+      <c r="P24" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="S24" s="22">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="U24" s="22">
+        <v>35</v>
+      </c>
+      <c r="V24" s="22">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="15">
-        <f>I21/U21</f>
-        <v>6.4748201438848921E-2</v>
-      </c>
-      <c r="M21" s="15">
-        <f>J21/V21</f>
-        <v>0.60606060606060608</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="6">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="P21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="6">
-        <v>1.4E-2</v>
-      </c>
-      <c r="S21" s="13">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="U21" s="10">
-        <v>139</v>
-      </c>
-      <c r="V21" s="10">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="13"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-    </row>
-    <row r="23" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="6">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="D23" s="13">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="6">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G23" s="17">
-        <v>5.5E-2</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="10">
-        <v>55</v>
-      </c>
-      <c r="J23" s="10">
-        <v>17</v>
-      </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="16">
-        <f>I23/U23</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M23" s="15">
-        <f>J23/V23</f>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="6">
-        <v>0</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="6">
-        <v>0</v>
-      </c>
-      <c r="S23" s="13">
-        <v>0.04</v>
-      </c>
-      <c r="U23" s="10">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D25" s="22">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22">
+        <v>1</v>
+      </c>
+      <c r="G25" s="22">
+        <v>1</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22">
+        <v>1</v>
+      </c>
+      <c r="J25" s="22">
+        <v>7</v>
+      </c>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23">
+        <f>I25/U25</f>
+        <v>1.020408163265306E-2</v>
+      </c>
+      <c r="M25" s="23">
+        <f>J25/V25</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="P25" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="S25" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="U25" s="22">
+        <v>98</v>
+      </c>
+      <c r="V25" s="22">
         <v>25</v>
       </c>
-      <c r="V23" s="10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="13"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-    </row>
-    <row r="25" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="D25" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="6">
-        <v>2.7E-2</v>
-      </c>
-      <c r="G25" s="17">
-        <v>2.7E-2</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="10">
-        <v>73</v>
-      </c>
-      <c r="J25" s="10">
-        <v>10</v>
-      </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="15">
-        <f>I25/U25</f>
-        <v>0.86904761904761907</v>
-      </c>
-      <c r="M25" s="15">
-        <f>J25/V25</f>
+    </row>
+    <row r="26" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="6">
         <v>0.4</v>
       </c>
-      <c r="N25" s="4"/>
-      <c r="O25" s="6">
-        <v>0</v>
-      </c>
-      <c r="P25" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="6">
-        <v>0</v>
-      </c>
-      <c r="S25" s="13">
-        <v>0</v>
-      </c>
-      <c r="U25" s="10">
-        <v>84</v>
-      </c>
-      <c r="V25" s="10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="13">
+        <v>0.4</v>
+      </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="17"/>
+      <c r="F26" s="6">
+        <v>0.111</v>
+      </c>
+      <c r="G26" s="17">
+        <v>0.111</v>
+      </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="I26" s="10">
+        <v>18</v>
+      </c>
+      <c r="J26" s="10">
+        <v>5</v>
+      </c>
       <c r="K26" s="10"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
+      <c r="L26" s="15">
+        <f>I26/U26</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="M26" s="15">
+        <f>J26/V26</f>
+        <v>0.12820512820512819</v>
+      </c>
       <c r="N26" s="4"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="13"/>
+      <c r="O26" s="6">
+        <v>0.154</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="Q26" s="4"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="13"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
+      <c r="R26" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="S26" s="13">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="U26" s="10">
+        <v>78</v>
+      </c>
+      <c r="V26" s="10">
+        <v>39</v>
+      </c>
     </row>
     <row r="27" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="6">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D27" s="13">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="6">
-        <v>1</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G27" s="17">
-        <v>1</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" s="10">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="15">
         <f>I27/U27</f>
-        <v>8.8495575221238937E-3</v>
+        <v>3.9473684210526314E-2</v>
       </c>
       <c r="M27" s="15">
         <f>J27/V27</f>
-        <v>0.60606060606060608</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="6">
-        <v>0.121</v>
+        <v>0.2</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="6">
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="S27" s="13">
-        <v>3.5000000000000003E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="U27" s="10">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="V27" s="10">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="13"/>
+      <c r="C28" s="6">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0.66700000000000004</v>
+      </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="17"/>
+      <c r="F28" s="6">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G28" s="17">
+        <v>8.6999999999999994E-2</v>
+      </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="I28" s="10">
+        <v>23</v>
+      </c>
+      <c r="J28" s="10">
+        <v>3</v>
+      </c>
       <c r="K28" s="10"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
+      <c r="L28" s="15">
+        <f>I28/U28</f>
+        <v>0.21495327102803738</v>
+      </c>
+      <c r="M28" s="15">
+        <f>J28/V28</f>
+        <v>0.14285714285714285</v>
+      </c>
       <c r="N28" s="4"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="13"/>
+      <c r="O28" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="Q28" s="4"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="13"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
+      <c r="R28" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="S28" s="13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U28" s="10">
+        <v>107</v>
+      </c>
+      <c r="V28" s="10">
+        <v>21</v>
+      </c>
     </row>
     <row r="29" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="6">
-        <v>0.125</v>
+        <v>0.4</v>
       </c>
       <c r="D29" s="13">
-        <v>0.188</v>
+        <v>0.4</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="6">
-        <v>0.154</v>
+        <v>0.05</v>
       </c>
       <c r="G29" s="17">
-        <v>0.23100000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="J29" s="10">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K29" s="10"/>
       <c r="L29" s="15">
         <f>I29/U29</f>
-        <v>0.44827586206896552</v>
+        <v>0.46511627906976744</v>
       </c>
       <c r="M29" s="15">
         <f>J29/V29</f>
-        <v>0.53333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="6">
-        <v>3.3000000000000002E-2</v>
+        <v>0.2</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="6">
-        <v>3.4000000000000002E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="S29" s="13">
-        <v>6.9000000000000006E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="U29" s="10">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="V29" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="13"/>
+      <c r="C30" s="6">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0.23100000000000001</v>
+      </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="17"/>
+      <c r="F30" s="6">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G30" s="17">
+        <v>5.6000000000000001E-2</v>
+      </c>
       <c r="H30" s="5"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
+      <c r="I30" s="10">
+        <v>54</v>
+      </c>
+      <c r="J30" s="10">
+        <v>13</v>
+      </c>
       <c r="K30" s="10"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
+      <c r="L30" s="16">
+        <f>I30/U30</f>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="M30" s="15">
+        <f>J30/V30</f>
+        <v>0.48148148148148145</v>
+      </c>
       <c r="N30" s="4"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="13"/>
+      <c r="O30" s="6">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="Q30" s="4"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="13"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R30" s="6">
+        <v>2.4E-2</v>
+      </c>
+      <c r="S30" s="13">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="U30" s="10">
+        <v>42</v>
+      </c>
+      <c r="V30" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="6">
-        <v>5.6000000000000001E-2</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D31" s="13">
-        <v>5.6000000000000001E-2</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="6">
-        <v>1</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="G31" s="17">
-        <v>1</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="10">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="J31" s="10">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K31" s="10"/>
       <c r="L31" s="15">
         <f>I31/U31</f>
-        <v>1.4285714285714285E-2</v>
+        <v>0.23469387755102042</v>
       </c>
       <c r="M31" s="15">
         <f>J31/V31</f>
-        <v>0.69230769230769229</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="6">
-        <v>0.115</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q31" s="4"/>
       <c r="R31" s="6">
-        <v>1.4E-2</v>
+        <v>0.01</v>
       </c>
       <c r="S31" s="13">
-        <v>1.4E-2</v>
+        <v>0.01</v>
       </c>
       <c r="U31" s="10">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="V31" s="10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="13"/>
+      <c r="C32" s="6">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D32" s="13">
+        <v>0.66700000000000004</v>
+      </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="17"/>
+      <c r="F32" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G32" s="17">
+        <v>0.1</v>
+      </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
+      <c r="I32" s="10">
+        <v>20</v>
+      </c>
+      <c r="J32" s="10">
+        <v>3</v>
+      </c>
       <c r="K32" s="10"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
+      <c r="L32" s="15">
+        <f>I32/U32</f>
+        <v>0.2247191011235955</v>
+      </c>
+      <c r="M32" s="15">
+        <f>J32/V32</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="N32" s="4"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="13"/>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="Q32" s="4"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="13"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="6">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="D33" s="13">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="6">
-        <v>1</v>
-      </c>
-      <c r="G33" s="17">
-        <v>1</v>
-      </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="10">
-        <v>1</v>
-      </c>
-      <c r="J33" s="10">
-        <v>12</v>
-      </c>
-      <c r="K33" s="10"/>
-      <c r="L33" s="15">
+      <c r="R32" s="6">
+        <v>0</v>
+      </c>
+      <c r="S32" s="13">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="U32" s="10">
+        <v>89</v>
+      </c>
+      <c r="V32" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="D33" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G33" s="22">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22">
+        <v>39</v>
+      </c>
+      <c r="J33" s="22">
+        <v>4</v>
+      </c>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23">
         <f>I33/U33</f>
-        <v>1.3513513513513514E-2</v>
-      </c>
-      <c r="M33" s="15">
+        <v>0.31451612903225806</v>
+      </c>
+      <c r="M33" s="23">
         <f>J33/V33</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="N33" s="4"/>
-      <c r="O33" s="6">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="P33" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="6">
-        <v>1.4E-2</v>
-      </c>
-      <c r="S33" s="13">
-        <v>1.4E-2</v>
-      </c>
-      <c r="U33" s="10">
-        <v>74</v>
-      </c>
-      <c r="V33" s="10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22">
+        <v>2.4E-2</v>
+      </c>
+      <c r="P33" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S33" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="U33" s="22">
+        <v>124</v>
+      </c>
+      <c r="V33" s="22">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="13"/>
+      <c r="C34" s="6">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0.66700000000000004</v>
+      </c>
       <c r="E34" s="4"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="17"/>
+      <c r="F34" s="6">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G34" s="17">
+        <v>9.5000000000000001E-2</v>
+      </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
+      <c r="I34" s="10">
+        <v>21</v>
+      </c>
+      <c r="J34" s="10">
+        <v>3</v>
+      </c>
       <c r="K34" s="10"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
+      <c r="L34" s="15">
+        <f>I34/U34</f>
+        <v>0.21875</v>
+      </c>
+      <c r="M34" s="15">
+        <f>J34/V34</f>
+        <v>0.125</v>
+      </c>
       <c r="N34" s="4"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="13"/>
+      <c r="O34" s="6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="Q34" s="4"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="13"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R34" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="S34" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="U34" s="10">
+        <v>96</v>
+      </c>
+      <c r="V34" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="6">
-        <v>0.111</v>
+        <v>0.5</v>
       </c>
       <c r="D35" s="13">
-        <v>0.111</v>
+        <v>0.5</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="6">
-        <v>1</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="G35" s="17">
-        <v>1</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="10">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J35" s="10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K35" s="10"/>
       <c r="L35" s="15">
         <f>I35/U35</f>
-        <v>5.2631578947368418E-2</v>
+        <v>0.56521739130434778</v>
       </c>
       <c r="M35" s="15">
         <f>J35/V35</f>
-        <v>0.33333333333333331</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="6">
-        <v>3.6999999999999998E-2</v>
+        <v>0.03</v>
       </c>
       <c r="P35" s="13" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="Q35" s="4"/>
       <c r="R35" s="6">
-        <v>5.2999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="S35" s="13">
-        <v>5.2999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="U35" s="10">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="V35" s="10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="13"/>
+      <c r="C36" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D36" s="13">
+        <v>0.25</v>
+      </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="17"/>
+      <c r="F36" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G36" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
+      <c r="I36" s="10">
+        <v>76</v>
+      </c>
+      <c r="J36" s="10">
+        <v>8</v>
+      </c>
       <c r="K36" s="10"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
+      <c r="L36" s="15">
+        <f>I36/U36</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M36" s="15">
+        <f>J36/V36</f>
+        <v>0.32</v>
+      </c>
       <c r="N36" s="4"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="13"/>
+      <c r="O36" s="6">
+        <v>0</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="Q36" s="4"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="13"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R36" s="6">
+        <v>0</v>
+      </c>
+      <c r="S36" s="13">
+        <v>0</v>
+      </c>
+      <c r="U36" s="10">
+        <v>114</v>
+      </c>
+      <c r="V36" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="6">
-        <v>0.125</v>
+        <v>0.222</v>
       </c>
       <c r="D37" s="13">
-        <v>0.125</v>
+        <v>0.222</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="6">
-        <v>1</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="G37" s="17">
-        <v>1</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="10">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="J37" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K37" s="10"/>
       <c r="L37" s="15">
         <f>I37/U37</f>
-        <v>1.7857142857142856E-2</v>
+        <v>0.52830188679245282</v>
       </c>
       <c r="M37" s="15">
         <f>J37/V37</f>
-        <v>0.38095238095238093</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="6">
-        <v>4.8000000000000001E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="P37" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q37" s="4"/>
       <c r="R37" s="6">
-        <v>1.7999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="S37" s="13">
-        <v>1.7999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="U37" s="10">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="V37" s="10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="B38" s="4"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="13"/>
+      <c r="C38" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D38" s="13">
+        <v>0.2</v>
+      </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="17"/>
+      <c r="F38" s="6">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G38" s="17">
+        <v>9.0999999999999998E-2</v>
+      </c>
       <c r="H38" s="5"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
+      <c r="I38" s="10">
+        <v>22</v>
+      </c>
+      <c r="J38" s="10">
+        <v>10</v>
+      </c>
       <c r="K38" s="10"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
+      <c r="L38" s="15">
+        <f>I38/U38</f>
+        <v>0.3188405797101449</v>
+      </c>
+      <c r="M38" s="15">
+        <f>J38/V38</f>
+        <v>0.30303030303030304</v>
+      </c>
       <c r="N38" s="4"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="13"/>
+      <c r="O38" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="Q38" s="4"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="13"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
+      <c r="R38" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="S38" s="13">
+        <v>1.4E-2</v>
+      </c>
+      <c r="U38" s="10">
+        <v>69</v>
+      </c>
+      <c r="V38" s="10">
+        <v>33</v>
+      </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="6">
-        <v>9.0999999999999998E-2</v>
+        <v>0.4</v>
       </c>
       <c r="D39" s="13">
-        <v>9.0999999999999998E-2</v>
+        <v>0.4</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="6">
-        <v>1</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="G39" s="17">
-        <v>1</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="10">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="J39" s="10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="15">
         <f>I39/U39</f>
-        <v>1.1764705882352941E-2</v>
+        <v>0.60317460317460314</v>
       </c>
       <c r="M39" s="15">
         <f>J39/V39</f>
-        <v>0.40740740740740738</v>
+        <v>9.2592592592592587E-2</v>
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="6">
-        <v>0.14799999999999999</v>
+        <v>0</v>
       </c>
       <c r="P39" s="13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="6">
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
       <c r="S39" s="13">
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
       <c r="U39" s="10">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="V39" s="10">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
@@ -2206,59 +2791,27 @@
       <c r="V40" s="10"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A41" s="3"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="6">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="D41" s="13">
-        <v>9.0999999999999998E-2</v>
-      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="13"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="6">
-        <v>1</v>
-      </c>
-      <c r="G41" s="17">
-        <v>1</v>
-      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="17"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="10">
-        <v>1</v>
-      </c>
-      <c r="J41" s="10">
-        <v>11</v>
-      </c>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
       <c r="K41" s="10"/>
-      <c r="L41" s="15">
-        <f>I41/U41</f>
-        <v>9.1743119266055051E-3</v>
-      </c>
-      <c r="M41" s="15">
-        <f>J41/V41</f>
-        <v>0.36666666666666664</v>
-      </c>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
       <c r="N41" s="4"/>
-      <c r="O41" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="P41" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="O41" s="6"/>
+      <c r="P41" s="13"/>
       <c r="Q41" s="4"/>
-      <c r="R41" s="6">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="S41" s="13">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="U41" s="10">
-        <v>109</v>
-      </c>
-      <c r="V41" s="10">
-        <v>30</v>
-      </c>
+      <c r="R41" s="6"/>
+      <c r="S41" s="13"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
     </row>
     <row r="42" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
@@ -2284,59 +2837,27 @@
       <c r="V42" s="10"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A43" s="3"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="6">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="D43" s="13">
-        <v>7.6999999999999999E-2</v>
-      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="13"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="6">
-        <v>1</v>
-      </c>
-      <c r="G43" s="17">
-        <v>1</v>
-      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="17"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="10">
-        <v>1</v>
-      </c>
-      <c r="J43" s="10">
-        <v>13</v>
-      </c>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
       <c r="K43" s="10"/>
-      <c r="L43" s="15">
-        <f>I43/U43</f>
-        <v>2.8571428571428571E-2</v>
-      </c>
-      <c r="M43" s="15">
-        <f>J43/V43</f>
-        <v>0.48148148148148145</v>
-      </c>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
       <c r="N43" s="4"/>
-      <c r="O43" s="6">
-        <v>0.111</v>
-      </c>
-      <c r="P43" s="13" t="s">
-        <v>50</v>
-      </c>
+      <c r="O43" s="6"/>
+      <c r="P43" s="13"/>
       <c r="Q43" s="4"/>
-      <c r="R43" s="6">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="S43" s="13">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="U43" s="10">
-        <v>35</v>
-      </c>
-      <c r="V43" s="10">
-        <v>27</v>
-      </c>
+      <c r="R43" s="6"/>
+      <c r="S43" s="13"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
     </row>
     <row r="44" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
@@ -2362,59 +2883,27 @@
       <c r="V44" s="10"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A45" s="3"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="6">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="D45" s="13">
-        <v>0.14299999999999999</v>
-      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="13"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="6">
-        <v>1</v>
-      </c>
-      <c r="G45" s="17">
-        <v>1</v>
-      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="17"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="10">
-        <v>1</v>
-      </c>
-      <c r="J45" s="10">
-        <v>7</v>
-      </c>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
       <c r="K45" s="10"/>
-      <c r="L45" s="15">
-        <f>I45/U45</f>
-        <v>1.020408163265306E-2</v>
-      </c>
-      <c r="M45" s="15">
-        <f>J45/V45</f>
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
       <c r="N45" s="4"/>
-      <c r="O45" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="P45" s="13" t="s">
-        <v>51</v>
-      </c>
+      <c r="O45" s="6"/>
+      <c r="P45" s="13"/>
       <c r="Q45" s="4"/>
-      <c r="R45" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="S45" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="U45" s="10">
-        <v>98</v>
-      </c>
-      <c r="V45" s="10">
-        <v>25</v>
-      </c>
+      <c r="R45" s="6"/>
+      <c r="S45" s="13"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
     </row>
     <row r="46" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
@@ -2439,60 +2928,28 @@
       <c r="U46" s="10"/>
       <c r="V46" s="10"/>
     </row>
-    <row r="47" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>21</v>
-      </c>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="D47" s="13">
-        <v>0.4</v>
-      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="13"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="6">
-        <v>0.111</v>
-      </c>
-      <c r="G47" s="17">
-        <v>0.111</v>
-      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="17"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="10">
-        <v>18</v>
-      </c>
-      <c r="J47" s="10">
-        <v>5</v>
-      </c>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
       <c r="K47" s="10"/>
-      <c r="L47" s="15">
-        <f>I47/U47</f>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="M47" s="15">
-        <f>J47/V47</f>
-        <v>0.12820512820512819</v>
-      </c>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
       <c r="N47" s="4"/>
-      <c r="O47" s="6">
-        <v>0.154</v>
-      </c>
-      <c r="P47" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="O47" s="6"/>
+      <c r="P47" s="13"/>
       <c r="Q47" s="4"/>
-      <c r="R47" s="6">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="S47" s="13">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="U47" s="10">
-        <v>78</v>
-      </c>
-      <c r="V47" s="10">
-        <v>39</v>
-      </c>
+      <c r="R47" s="6"/>
+      <c r="S47" s="13"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
     </row>
     <row r="48" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
@@ -2517,60 +2974,28 @@
       <c r="U48" s="10"/>
       <c r="V48" s="10"/>
     </row>
-    <row r="49" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>22</v>
-      </c>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="6">
-        <v>1</v>
-      </c>
-      <c r="D49" s="13">
-        <v>1</v>
-      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="13"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="6">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="G49" s="17">
-        <v>0.66700000000000004</v>
-      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="17"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="10">
-        <v>3</v>
-      </c>
-      <c r="J49" s="10">
-        <v>2</v>
-      </c>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
       <c r="K49" s="10"/>
-      <c r="L49" s="15">
-        <f>I49/U49</f>
-        <v>3.9473684210526314E-2</v>
-      </c>
-      <c r="M49" s="15">
-        <f>J49/V49</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
       <c r="N49" s="4"/>
-      <c r="O49" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="P49" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="O49" s="6"/>
+      <c r="P49" s="13"/>
       <c r="Q49" s="4"/>
-      <c r="R49" s="6">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="S49" s="13">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="U49" s="10">
-        <v>76</v>
-      </c>
-      <c r="V49" s="10">
-        <v>30</v>
-      </c>
+      <c r="R49" s="6"/>
+      <c r="S49" s="13"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
     </row>
     <row r="50" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
@@ -2596,59 +3021,27 @@
       <c r="V50" s="10"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A51" s="3"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="6">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="D51" s="13">
-        <v>0.66700000000000004</v>
-      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="13"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="6">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="G51" s="17">
-        <v>8.6999999999999994E-2</v>
-      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="17"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="10">
-        <v>23</v>
-      </c>
-      <c r="J51" s="10">
-        <v>3</v>
-      </c>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
       <c r="K51" s="10"/>
-      <c r="L51" s="15">
-        <f>I51/U51</f>
-        <v>0.21495327102803738</v>
-      </c>
-      <c r="M51" s="15">
-        <f>J51/V51</f>
-        <v>0.14285714285714285</v>
-      </c>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
       <c r="N51" s="4"/>
-      <c r="O51" s="6">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="P51" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="O51" s="6"/>
+      <c r="P51" s="13"/>
       <c r="Q51" s="4"/>
-      <c r="R51" s="6">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="S51" s="13">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="U51" s="10">
-        <v>107</v>
-      </c>
-      <c r="V51" s="10">
-        <v>21</v>
-      </c>
+      <c r="R51" s="6"/>
+      <c r="S51" s="13"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
     </row>
     <row r="52" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
@@ -2673,60 +3066,28 @@
       <c r="U52" s="10"/>
       <c r="V52" s="10"/>
     </row>
-    <row r="53" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>24</v>
-      </c>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="D53" s="13">
-        <v>0.4</v>
-      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="13"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="G53" s="17">
-        <v>0.05</v>
-      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="17"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="10">
-        <v>40</v>
-      </c>
-      <c r="J53" s="10">
-        <v>5</v>
-      </c>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
       <c r="K53" s="10"/>
-      <c r="L53" s="15">
-        <f>I53/U53</f>
-        <v>0.46511627906976744</v>
-      </c>
-      <c r="M53" s="15">
-        <f>J53/V53</f>
-        <v>0.16666666666666666</v>
-      </c>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
       <c r="N53" s="4"/>
-      <c r="O53" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="P53" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="O53" s="6"/>
+      <c r="P53" s="13"/>
       <c r="Q53" s="4"/>
-      <c r="R53" s="6">
-        <v>1.2E-2</v>
-      </c>
-      <c r="S53" s="13">
-        <v>1.2E-2</v>
-      </c>
-      <c r="U53" s="10">
-        <v>86</v>
-      </c>
-      <c r="V53" s="10">
-        <v>30</v>
-      </c>
+      <c r="R53" s="6"/>
+      <c r="S53" s="13"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
     </row>
     <row r="54" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
@@ -2752,59 +3113,27 @@
       <c r="V54" s="10"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A55" s="3"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="6">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="D55" s="13">
-        <v>0.23100000000000001</v>
-      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="13"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="6">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="G55" s="17">
-        <v>5.6000000000000001E-2</v>
-      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="17"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="10">
-        <v>54</v>
-      </c>
-      <c r="J55" s="10">
-        <v>13</v>
-      </c>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
       <c r="K55" s="10"/>
-      <c r="L55" s="16">
-        <f>I55/U55</f>
-        <v>1.2857142857142858</v>
-      </c>
-      <c r="M55" s="15">
-        <f>J55/V55</f>
-        <v>0.48148148148148145</v>
-      </c>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
       <c r="N55" s="4"/>
-      <c r="O55" s="6">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="P55" s="13" t="s">
-        <v>54</v>
-      </c>
+      <c r="O55" s="6"/>
+      <c r="P55" s="13"/>
       <c r="Q55" s="4"/>
-      <c r="R55" s="6">
-        <v>2.4E-2</v>
-      </c>
-      <c r="S55" s="13">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="U55" s="10">
-        <v>42</v>
-      </c>
-      <c r="V55" s="10">
-        <v>27</v>
-      </c>
+      <c r="R55" s="6"/>
+      <c r="S55" s="13"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
     </row>
     <row r="56" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
@@ -2829,60 +3158,28 @@
       <c r="U56" s="10"/>
       <c r="V56" s="10"/>
     </row>
-    <row r="57" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>26</v>
-      </c>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A57" s="3"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="6">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="D57" s="13">
-        <v>0.66700000000000004</v>
-      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="13"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="6">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="G57" s="17">
-        <v>8.6999999999999994E-2</v>
-      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="17"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="10">
-        <v>23</v>
-      </c>
-      <c r="J57" s="10">
-        <v>3</v>
-      </c>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
       <c r="K57" s="10"/>
-      <c r="L57" s="15">
-        <f>I57/U57</f>
-        <v>0.23469387755102042</v>
-      </c>
-      <c r="M57" s="15">
-        <f>J57/V57</f>
-        <v>0.1111111111111111</v>
-      </c>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
       <c r="N57" s="4"/>
-      <c r="O57" s="6">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="P57" s="13" t="s">
-        <v>55</v>
-      </c>
+      <c r="O57" s="6"/>
+      <c r="P57" s="13"/>
       <c r="Q57" s="4"/>
-      <c r="R57" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="S57" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="U57" s="10">
-        <v>98</v>
-      </c>
-      <c r="V57" s="10">
-        <v>27</v>
-      </c>
+      <c r="R57" s="6"/>
+      <c r="S57" s="13"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
     </row>
     <row r="58" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
@@ -2907,60 +3204,28 @@
       <c r="U58" s="10"/>
       <c r="V58" s="10"/>
     </row>
-    <row r="59" spans="1:22" ht="48" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>27</v>
-      </c>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="6">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="D59" s="13">
-        <v>0.66700000000000004</v>
-      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="13"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G59" s="17">
-        <v>0.1</v>
-      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="17"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="10">
-        <v>20</v>
-      </c>
-      <c r="J59" s="10">
-        <v>3</v>
-      </c>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
       <c r="K59" s="10"/>
-      <c r="L59" s="15">
-        <f>I59/U59</f>
-        <v>0.2247191011235955</v>
-      </c>
-      <c r="M59" s="15">
-        <f>J59/V59</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
       <c r="N59" s="4"/>
-      <c r="O59" s="6">
-        <v>0</v>
-      </c>
-      <c r="P59" s="13" t="s">
-        <v>56</v>
-      </c>
+      <c r="O59" s="6"/>
+      <c r="P59" s="13"/>
       <c r="Q59" s="4"/>
-      <c r="R59" s="6">
-        <v>0</v>
-      </c>
-      <c r="S59" s="13">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="U59" s="10">
-        <v>89</v>
-      </c>
-      <c r="V59" s="10">
-        <v>36</v>
-      </c>
+      <c r="R59" s="6"/>
+      <c r="S59" s="13"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
     </row>
     <row r="60" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
@@ -2985,60 +3250,28 @@
       <c r="U60" s="10"/>
       <c r="V60" s="10"/>
     </row>
-    <row r="61" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>28</v>
-      </c>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A61" s="3"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="D61" s="13">
-        <v>0.25</v>
-      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="13"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="6">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="G61" s="17">
-        <v>2.5999999999999999E-2</v>
-      </c>
+      <c r="F61" s="6"/>
+      <c r="G61" s="17"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="10">
-        <v>39</v>
-      </c>
-      <c r="J61" s="10">
-        <v>4</v>
-      </c>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
       <c r="K61" s="10"/>
-      <c r="L61" s="15">
-        <f>I61/U61</f>
-        <v>0.31451612903225806</v>
-      </c>
-      <c r="M61" s="15">
-        <f>J61/V61</f>
-        <v>9.5238095238095233E-2</v>
-      </c>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
       <c r="N61" s="4"/>
-      <c r="O61" s="6">
-        <v>2.4E-2</v>
-      </c>
-      <c r="P61" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="O61" s="6"/>
+      <c r="P61" s="13"/>
       <c r="Q61" s="4"/>
-      <c r="R61" s="6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="S61" s="13">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="U61" s="10">
-        <v>124</v>
-      </c>
-      <c r="V61" s="10">
-        <v>42</v>
-      </c>
+      <c r="R61" s="6"/>
+      <c r="S61" s="13"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
     </row>
     <row r="62" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
@@ -3063,60 +3296,28 @@
       <c r="U62" s="10"/>
       <c r="V62" s="10"/>
     </row>
-    <row r="63" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>29</v>
-      </c>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A63" s="3"/>
       <c r="B63" s="4"/>
-      <c r="C63" s="6">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="D63" s="13">
-        <v>0.66700000000000004</v>
-      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="13"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="6">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="G63" s="17">
-        <v>9.5000000000000001E-2</v>
-      </c>
+      <c r="F63" s="6"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="10">
-        <v>21</v>
-      </c>
-      <c r="J63" s="10">
-        <v>3</v>
-      </c>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
       <c r="K63" s="10"/>
-      <c r="L63" s="15">
-        <f>I63/U63</f>
-        <v>0.21875</v>
-      </c>
-      <c r="M63" s="15">
-        <f>J63/V63</f>
-        <v>0.125</v>
-      </c>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
       <c r="N63" s="4"/>
-      <c r="O63" s="6">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="P63" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="O63" s="6"/>
+      <c r="P63" s="13"/>
       <c r="Q63" s="4"/>
-      <c r="R63" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="S63" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="U63" s="10">
-        <v>96</v>
-      </c>
-      <c r="V63" s="10">
-        <v>24</v>
-      </c>
+      <c r="R63" s="6"/>
+      <c r="S63" s="13"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
     </row>
     <row r="64" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
@@ -3141,60 +3342,28 @@
       <c r="U64" s="10"/>
       <c r="V64" s="10"/>
     </row>
-    <row r="65" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>30</v>
-      </c>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D65" s="13">
-        <v>0.5</v>
-      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="13"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="6">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="G65" s="17">
-        <v>3.7999999999999999E-2</v>
-      </c>
+      <c r="F65" s="6"/>
+      <c r="G65" s="17"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="10">
-        <v>52</v>
-      </c>
-      <c r="J65" s="10">
-        <v>4</v>
-      </c>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
       <c r="K65" s="10"/>
-      <c r="L65" s="15">
-        <f>I65/U65</f>
-        <v>0.56521739130434778</v>
-      </c>
-      <c r="M65" s="15">
-        <f>J65/V65</f>
-        <v>0.12121212121212122</v>
-      </c>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
       <c r="N65" s="4"/>
-      <c r="O65" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="P65" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="O65" s="6"/>
+      <c r="P65" s="13"/>
       <c r="Q65" s="4"/>
-      <c r="R65" s="6">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="S65" s="13">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="U65" s="10">
-        <v>92</v>
-      </c>
-      <c r="V65" s="10">
-        <v>33</v>
-      </c>
+      <c r="R65" s="6"/>
+      <c r="S65" s="13"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
     </row>
     <row r="66" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
@@ -3219,60 +3388,28 @@
       <c r="U66" s="10"/>
       <c r="V66" s="10"/>
     </row>
-    <row r="67" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>31</v>
-      </c>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A67" s="3"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="D67" s="13">
-        <v>0.25</v>
-      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="13"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="6">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="G67" s="17">
-        <v>2.5999999999999999E-2</v>
-      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="17"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="10">
-        <v>76</v>
-      </c>
-      <c r="J67" s="10">
-        <v>8</v>
-      </c>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
       <c r="K67" s="10"/>
-      <c r="L67" s="15">
-        <f>I67/U67</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M67" s="15">
-        <f>J67/V67</f>
-        <v>0.32</v>
-      </c>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
       <c r="N67" s="4"/>
-      <c r="O67" s="6">
-        <v>0</v>
-      </c>
-      <c r="P67" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="O67" s="6"/>
+      <c r="P67" s="13"/>
       <c r="Q67" s="4"/>
-      <c r="R67" s="6">
-        <v>0</v>
-      </c>
-      <c r="S67" s="13">
-        <v>0</v>
-      </c>
-      <c r="U67" s="10">
-        <v>114</v>
-      </c>
-      <c r="V67" s="10">
-        <v>25</v>
-      </c>
+      <c r="R67" s="6"/>
+      <c r="S67" s="13"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
     </row>
     <row r="68" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
@@ -3297,60 +3434,28 @@
       <c r="U68" s="10"/>
       <c r="V68" s="10"/>
     </row>
-    <row r="69" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>32</v>
-      </c>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A69" s="3"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="6">
-        <v>0.222</v>
-      </c>
-      <c r="D69" s="13">
-        <v>0.222</v>
-      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="13"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="6">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G69" s="17">
-        <v>3.5999999999999997E-2</v>
-      </c>
+      <c r="F69" s="6"/>
+      <c r="G69" s="17"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="10">
-        <v>56</v>
-      </c>
-      <c r="J69" s="10">
-        <v>9</v>
-      </c>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
       <c r="K69" s="10"/>
-      <c r="L69" s="15">
-        <f>I69/U69</f>
-        <v>0.52830188679245282</v>
-      </c>
-      <c r="M69" s="15">
-        <f>J69/V69</f>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
       <c r="N69" s="4"/>
-      <c r="O69" s="6">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="P69" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="O69" s="6"/>
+      <c r="P69" s="13"/>
       <c r="Q69" s="4"/>
-      <c r="R69" s="6">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="S69" s="13">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="U69" s="10">
-        <v>106</v>
-      </c>
-      <c r="V69" s="10">
-        <v>27</v>
-      </c>
+      <c r="R69" s="6"/>
+      <c r="S69" s="13"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
     </row>
     <row r="70" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
@@ -3375,60 +3480,28 @@
       <c r="U70" s="10"/>
       <c r="V70" s="10"/>
     </row>
-    <row r="71" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>33</v>
-      </c>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A71" s="3"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="D71" s="13">
-        <v>0.2</v>
-      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="13"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="6">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="G71" s="17">
-        <v>9.0999999999999998E-2</v>
-      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="17"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="10">
-        <v>22</v>
-      </c>
-      <c r="J71" s="10">
-        <v>10</v>
-      </c>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
       <c r="K71" s="10"/>
-      <c r="L71" s="15">
-        <f>I71/U71</f>
-        <v>0.3188405797101449</v>
-      </c>
-      <c r="M71" s="15">
-        <f>J71/V71</f>
-        <v>0.30303030303030304</v>
-      </c>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
       <c r="N71" s="4"/>
-      <c r="O71" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="P71" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="O71" s="6"/>
+      <c r="P71" s="13"/>
       <c r="Q71" s="4"/>
-      <c r="R71" s="6">
-        <v>1.4E-2</v>
-      </c>
-      <c r="S71" s="13">
-        <v>1.4E-2</v>
-      </c>
-      <c r="U71" s="10">
-        <v>69</v>
-      </c>
-      <c r="V71" s="10">
-        <v>33</v>
-      </c>
+      <c r="R71" s="6"/>
+      <c r="S71" s="13"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
     </row>
     <row r="72" spans="1:22" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
@@ -3454,73 +3527,1831 @@
       <c r="V72" s="10"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="A73" s="3"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="D73" s="13">
-        <v>0.4</v>
-      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="13"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="6">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="G73" s="17">
-        <v>2.5999999999999999E-2</v>
-      </c>
+      <c r="F73" s="6"/>
+      <c r="G73" s="17"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="10">
-        <v>76</v>
-      </c>
-      <c r="J73" s="10">
-        <v>5</v>
-      </c>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
       <c r="K73" s="10"/>
-      <c r="L73" s="15">
-        <f>I73/U73</f>
-        <v>0.60317460317460314</v>
-      </c>
-      <c r="M73" s="15">
-        <f>J73/V73</f>
-        <v>9.2592592592592587E-2</v>
-      </c>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
       <c r="N73" s="4"/>
-      <c r="O73" s="6">
-        <v>0</v>
-      </c>
-      <c r="P73" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="O73" s="6"/>
+      <c r="P73" s="13"/>
       <c r="Q73" s="4"/>
-      <c r="R73" s="6">
-        <v>0</v>
-      </c>
-      <c r="S73" s="13">
-        <v>0</v>
-      </c>
-      <c r="U73" s="10">
-        <v>126</v>
-      </c>
-      <c r="V73" s="10">
-        <v>54</v>
-      </c>
+      <c r="R73" s="6"/>
+      <c r="S73" s="13"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
     </row>
   </sheetData>
+  <sortState ref="A5:V73">
+    <sortCondition ref="A5"/>
+  </sortState>
   <mergeCells count="9">
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="U2:V2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="U2:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="J33" sqref="J5:J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.6640625" customWidth="1"/>
+    <col min="11" max="11" width="1.6640625" customWidth="1"/>
+    <col min="14" max="14" width="1.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.6640625" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="1.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="2"/>
+      <c r="O1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+    </row>
+    <row r="2" spans="1:22" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="19"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="19"/>
+    </row>
+    <row r="3" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="9" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+    </row>
+    <row r="5" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7">
+        <v>6</v>
+      </c>
+      <c r="J5" s="7">
+        <v>6</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="25">
+        <f>I5/U5</f>
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="M5" s="25">
+        <f>J5/V5</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="O5" s="6">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="S5" s="13">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="U5" s="10">
+        <v>55</v>
+      </c>
+      <c r="V5" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G6" s="13">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
+        <v>21</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="25">
+        <f t="shared" ref="L6:L33" si="0">I6/U6</f>
+        <v>0.328125</v>
+      </c>
+      <c r="M6" s="25">
+        <f t="shared" ref="M6:M33" si="1">J6/V6</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O6" s="6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="S6" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="U6" s="10">
+        <v>64</v>
+      </c>
+      <c r="V6" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.222</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.222</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7">
+        <v>153</v>
+      </c>
+      <c r="J7" s="7">
+        <v>9</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="25">
+        <f t="shared" si="0"/>
+        <v>0.35011441647597252</v>
+      </c>
+      <c r="M7" s="25">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="O7" s="6">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="S7" s="13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="U7" s="10">
+        <v>437</v>
+      </c>
+      <c r="V7" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G8" s="13">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7">
+        <v>43</v>
+      </c>
+      <c r="J8" s="7">
+        <v>8</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="25">
+        <f t="shared" si="0"/>
+        <v>0.39449541284403672</v>
+      </c>
+      <c r="M8" s="25">
+        <f t="shared" si="1"/>
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="S8" s="13">
+        <v>0</v>
+      </c>
+      <c r="U8" s="10">
+        <v>109</v>
+      </c>
+      <c r="V8" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G9" s="13">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7">
+        <v>48</v>
+      </c>
+      <c r="J9" s="7">
+        <v>5</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="25">
+        <f t="shared" si="0"/>
+        <v>0.5393258426966292</v>
+      </c>
+      <c r="M9" s="25">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O9" s="6">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="S9" s="13">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="U9" s="10">
+        <v>89</v>
+      </c>
+      <c r="V9" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7">
+        <v>15</v>
+      </c>
+      <c r="J10" s="7">
+        <v>6</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="25">
+        <f t="shared" si="0"/>
+        <v>0.25423728813559321</v>
+      </c>
+      <c r="M10" s="25">
+        <f t="shared" si="1"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0.152</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="S10" s="13">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="U10" s="10">
+        <v>59</v>
+      </c>
+      <c r="V10" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G11" s="13">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7">
+        <v>34</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="25">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="M11" s="25">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="O11" s="6">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="S11" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="U11" s="10">
+        <v>100</v>
+      </c>
+      <c r="V11" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G12" s="13">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7">
+        <v>45</v>
+      </c>
+      <c r="J12" s="7">
+        <v>2</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="25">
+        <f t="shared" si="0"/>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="M12" s="25">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="13">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="U12" s="10">
+        <v>57</v>
+      </c>
+      <c r="V12" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G13" s="13">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7">
+        <v>86</v>
+      </c>
+      <c r="J13" s="7">
+        <v>14</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="25">
+        <f t="shared" si="0"/>
+        <v>0.61870503597122306</v>
+      </c>
+      <c r="M13" s="25">
+        <f t="shared" si="1"/>
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="O13" s="6">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="S13" s="13">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="U13" s="10">
+        <v>139</v>
+      </c>
+      <c r="V13" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D14" s="13">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7">
+        <v>51</v>
+      </c>
+      <c r="J14" s="7">
+        <v>12</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="25">
+        <f t="shared" si="0"/>
+        <v>2.04</v>
+      </c>
+      <c r="M14" s="25">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="U14" s="10">
+        <v>25</v>
+      </c>
+      <c r="V14" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7">
+        <v>64</v>
+      </c>
+      <c r="J15" s="7">
+        <v>5</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="25">
+        <f t="shared" si="0"/>
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="M15" s="25">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="6">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="10">
+        <v>84</v>
+      </c>
+      <c r="V15" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0.188</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G16" s="13">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7">
+        <v>96</v>
+      </c>
+      <c r="J16" s="7">
+        <v>16</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="25">
+        <f t="shared" si="0"/>
+        <v>0.84955752212389379</v>
+      </c>
+      <c r="M16" s="25">
+        <f t="shared" si="1"/>
+        <v>0.48484848484848486</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0.121</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="S16" s="13">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="U16" s="10">
+        <v>113</v>
+      </c>
+      <c r="V16" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0.182</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7">
+        <v>12</v>
+      </c>
+      <c r="J17" s="7">
+        <v>11</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="25">
+        <f t="shared" si="0"/>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M17" s="25">
+        <f t="shared" si="1"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="O17" s="6">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="S17" s="13">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="U17" s="10">
+        <v>29</v>
+      </c>
+      <c r="V17" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D18" s="13">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G18" s="13">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7">
+        <v>14</v>
+      </c>
+      <c r="J18" s="7">
+        <v>15</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="25">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="M18" s="25">
+        <f t="shared" si="1"/>
+        <v>0.57692307692307687</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="S18" s="13">
+        <v>1.4E-2</v>
+      </c>
+      <c r="U18" s="10">
+        <v>70</v>
+      </c>
+      <c r="V18" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G19" s="13">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7">
+        <v>18</v>
+      </c>
+      <c r="J19" s="7">
+        <v>10</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="25">
+        <f t="shared" si="0"/>
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="M19" s="25">
+        <f t="shared" si="1"/>
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="O19" s="6">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="S19" s="13">
+        <v>1.4E-2</v>
+      </c>
+      <c r="U19" s="10">
+        <v>74</v>
+      </c>
+      <c r="V19" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7">
+        <v>15</v>
+      </c>
+      <c r="J20" s="7">
+        <v>6</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="25">
+        <f t="shared" si="0"/>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="M20" s="25">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="O20" s="6">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="6">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="S20" s="13">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="U20" s="10">
+        <v>19</v>
+      </c>
+      <c r="V20" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6">
+        <v>0.111</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0.111</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7">
+        <v>9</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="25">
+        <f t="shared" si="0"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="M21" s="25">
+        <f t="shared" si="1"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0.154</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="S21" s="13">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="U21" s="10">
+        <v>78</v>
+      </c>
+      <c r="V21" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G22" s="13">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7">
+        <v>16</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="25">
+        <f t="shared" si="0"/>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="M22" s="25">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="S22" s="13">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="U22" s="10">
+        <v>76</v>
+      </c>
+      <c r="V22" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G23" s="13">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7">
+        <v>15</v>
+      </c>
+      <c r="J23" s="7">
+        <v>2</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="25">
+        <f t="shared" si="0"/>
+        <v>0.14018691588785046</v>
+      </c>
+      <c r="M23" s="25">
+        <f t="shared" si="1"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="S23" s="13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U23" s="10">
+        <v>107</v>
+      </c>
+      <c r="V23" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G24" s="13">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7">
+        <v>23</v>
+      </c>
+      <c r="J24" s="7">
+        <v>2</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="25">
+        <f t="shared" si="0"/>
+        <v>0.26744186046511625</v>
+      </c>
+      <c r="M24" s="25">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S24" s="13">
+        <v>1.2E-2</v>
+      </c>
+      <c r="U24" s="10">
+        <v>86</v>
+      </c>
+      <c r="V24" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D25" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G25" s="13">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7">
+        <v>43</v>
+      </c>
+      <c r="J25" s="7">
+        <v>8</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="25">
+        <f t="shared" si="0"/>
+        <v>1.0238095238095237</v>
+      </c>
+      <c r="M25" s="25">
+        <f t="shared" si="1"/>
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="6">
+        <v>2.4E-2</v>
+      </c>
+      <c r="S25" s="13">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="U25" s="10">
+        <v>42</v>
+      </c>
+      <c r="V25" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="25">
+        <f t="shared" si="0"/>
+        <v>1.020408163265306E-2</v>
+      </c>
+      <c r="M26" s="25">
+        <f t="shared" si="1"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="O26" s="6">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="S26" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="U26" s="10">
+        <v>98</v>
+      </c>
+      <c r="V26" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G27" s="13">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7">
+        <v>18</v>
+      </c>
+      <c r="J27" s="7">
+        <v>2</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="25">
+        <f t="shared" si="0"/>
+        <v>0.20224719101123595</v>
+      </c>
+      <c r="M27" s="25">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="6">
+        <v>0</v>
+      </c>
+      <c r="S27" s="13">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="U27" s="10">
+        <v>89</v>
+      </c>
+      <c r="V27" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7">
+        <v>8</v>
+      </c>
+      <c r="J28" s="7">
+        <v>1</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="25">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M28" s="25">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="O28" s="6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="S28" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="U28" s="10">
+        <v>96</v>
+      </c>
+      <c r="V28" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G29" s="13">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7">
+        <v>27</v>
+      </c>
+      <c r="J29" s="7">
+        <v>2</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="25">
+        <f t="shared" si="0"/>
+        <v>0.29347826086956524</v>
+      </c>
+      <c r="M29" s="25">
+        <f t="shared" si="1"/>
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="S29" s="13">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="U29" s="10">
+        <v>92</v>
+      </c>
+      <c r="V29" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G30" s="13">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7">
+        <v>75</v>
+      </c>
+      <c r="J30" s="7">
+        <v>5</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="25">
+        <f t="shared" si="0"/>
+        <v>0.65789473684210531</v>
+      </c>
+      <c r="M30" s="25">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="6">
+        <v>0</v>
+      </c>
+      <c r="S30" s="13">
+        <v>0</v>
+      </c>
+      <c r="U30" s="10">
+        <v>114</v>
+      </c>
+      <c r="V30" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G31" s="13">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7">
+        <v>29</v>
+      </c>
+      <c r="J31" s="7">
+        <v>1</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="25">
+        <f t="shared" si="0"/>
+        <v>0.27358490566037735</v>
+      </c>
+      <c r="M31" s="25">
+        <f t="shared" si="1"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="O31" s="6">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="S31" s="13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U31" s="10">
+        <v>106</v>
+      </c>
+      <c r="V31" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D32" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G32" s="13">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7">
+        <v>18</v>
+      </c>
+      <c r="J32" s="7">
+        <v>4</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="25">
+        <f t="shared" si="0"/>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="M32" s="25">
+        <f t="shared" si="1"/>
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="S32" s="13">
+        <v>1.4E-2</v>
+      </c>
+      <c r="U32" s="10">
+        <v>69</v>
+      </c>
+      <c r="V32" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7">
+        <v>51</v>
+      </c>
+      <c r="J33" s="7">
+        <v>2</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="25">
+        <f t="shared" si="0"/>
+        <v>0.40476190476190477</v>
+      </c>
+      <c r="M33" s="25">
+        <f t="shared" si="1"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="6">
+        <v>0</v>
+      </c>
+      <c r="S33" s="13">
+        <v>0</v>
+      </c>
+      <c r="U33" s="10">
+        <v>126</v>
+      </c>
+      <c r="V33" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I56" s="7"/>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I57" s="7"/>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I58" s="7"/>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I59" s="7"/>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I65" s="7"/>
+    </row>
+  </sheetData>
+  <sortState ref="A5:J33">
+    <sortCondition ref="A5"/>
+  </sortState>
+  <mergeCells count="9">
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="U2:V2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>